--- a/Errors_9.xlsx
+++ b/Errors_9.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>498599.1239171542</v>
+        <v>482081.3619802575</v>
       </c>
       <c r="B2" t="n">
-        <v>247297.5578750602</v>
+        <v>33069.83339200183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>464136.3192421852</v>
+        <v>491054.5614332809</v>
       </c>
       <c r="B3" t="n">
-        <v>147510.5828497001</v>
+        <v>172727.2482895083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>464592.0437519854</v>
+        <v>474331.4408438289</v>
       </c>
       <c r="B4" t="n">
-        <v>145866.0847808317</v>
+        <v>77963.85458341632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>444637.8663979636</v>
+        <v>452564.2329359637</v>
       </c>
       <c r="B5" t="n">
-        <v>43487.28237201004</v>
+        <v>7317.901505884343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>439238.2379715039</v>
+        <v>436871.4167940705</v>
       </c>
       <c r="B6" t="n">
-        <v>148605.1232868662</v>
+        <v>10236.1608128005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>405025.0473934239</v>
+        <v>427140.099803189</v>
       </c>
       <c r="B7" t="n">
-        <v>70635.92430556507</v>
+        <v>13010.82553927478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>364835.5685248894</v>
+        <v>420463.5636243568</v>
       </c>
       <c r="B8" t="n">
-        <v>71556.43361560568</v>
+        <v>15924.37774378979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>362592.9929267385</v>
+        <v>413776.8347923096</v>
       </c>
       <c r="B9" t="n">
-        <v>55971.54971498738</v>
+        <v>16943.2677293827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>293406.0735198493</v>
+        <v>380070.5750491428</v>
       </c>
       <c r="B10" t="n">
-        <v>85531.93899902461</v>
+        <v>118324.3488868809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>275539.7420056448</v>
+        <v>365032.8490830282</v>
       </c>
       <c r="B11" t="n">
-        <v>41329.5316147761</v>
+        <v>109448.7785407504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>228292.144057181</v>
+        <v>311770.2366074931</v>
       </c>
       <c r="B12" t="n">
-        <v>40780.14938579676</v>
+        <v>106816.5226284292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>211052.5791589743</v>
+        <v>256843.799534989</v>
       </c>
       <c r="B13" t="n">
-        <v>63375.42378779631</v>
+        <v>50566.22913530252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>174119.3605333347</v>
+        <v>226298.7089051988</v>
       </c>
       <c r="B14" t="n">
-        <v>61394.69126856027</v>
+        <v>51006.36177648127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>137330.6069497855</v>
+        <v>217204.5780212885</v>
       </c>
       <c r="B15" t="n">
-        <v>57212.99579264947</v>
+        <v>56917.8498873689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>132305.2108421958</v>
+        <v>222989.8672873169</v>
       </c>
       <c r="B16" t="n">
-        <v>46537.13319642486</v>
+        <v>130835.6248522662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95360.54782441811</v>
+        <v>178864.1763427058</v>
       </c>
       <c r="B17" t="n">
-        <v>49603.45322653571</v>
+        <v>110158.4492317827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>133266.9520332145</v>
+        <v>162612.3986092366</v>
       </c>
       <c r="B18" t="n">
-        <v>47974.52868749639</v>
+        <v>110663.7376920017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>98334.72840248063</v>
+        <v>154883.5990195669</v>
       </c>
       <c r="B19" t="n">
-        <v>41843.37554133275</v>
+        <v>100811.7065242737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>113163.5729978197</v>
+        <v>146778.7380305853</v>
       </c>
       <c r="B20" t="n">
-        <v>11809.06911028718</v>
+        <v>57565.96017760781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>88697.72710340838</v>
+        <v>135032.6468770918</v>
       </c>
       <c r="B21" t="n">
-        <v>42289.4883307682</v>
+        <v>57565.96017760781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103943.3852517356</v>
+        <v>140187.1229514961</v>
       </c>
       <c r="B22" t="n">
-        <v>37326.23618496936</v>
+        <v>74662.80321440607</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>97748.08600880612</v>
+        <v>121519.3916982622</v>
       </c>
       <c r="B23" t="n">
-        <v>37115.13341077816</v>
+        <v>71244.96190760129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102515.6400076779</v>
+        <v>114805.5437161037</v>
       </c>
       <c r="B24" t="n">
-        <v>31808.32378889299</v>
+        <v>66102.54019524518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96071.56938885154</v>
+        <v>117765.7691156627</v>
       </c>
       <c r="B25" t="n">
-        <v>31713.9457688583</v>
+        <v>60285.14776672988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>90049.02680963546</v>
+        <v>98018.97829842375</v>
       </c>
       <c r="B26" t="n">
-        <v>28478.41527360584</v>
+        <v>43803.57991836953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>92882.73894654409</v>
+        <v>102888.5779811628</v>
       </c>
       <c r="B27" t="n">
-        <v>23300.8453490123</v>
+        <v>37378.75853728401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>82454.35093461239</v>
+        <v>75248.98215387385</v>
       </c>
       <c r="B28" t="n">
-        <v>12532.62214895954</v>
+        <v>35242.6150925331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>72066.20537187098</v>
+        <v>89007.15420075445</v>
       </c>
       <c r="B29" t="n">
-        <v>12532.62214895954</v>
+        <v>37119.91585068606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>70077.93849335982</v>
+        <v>98377.86044200802</v>
       </c>
       <c r="B30" t="n">
-        <v>19293.44540981113</v>
+        <v>31792.10349464966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>47223.89086236698</v>
+        <v>72128.39454693785</v>
       </c>
       <c r="B31" t="n">
-        <v>13248.49231207882</v>
+        <v>26142.74176352877</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50627.88183624232</v>
+        <v>91686.39797355601</v>
       </c>
       <c r="B32" t="n">
-        <v>11679.39286904026</v>
+        <v>22035.67848100858</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70727.3542652129</v>
+        <v>74999.56337175082</v>
       </c>
       <c r="B33" t="n">
-        <v>9672.117274706154</v>
+        <v>22813.3096650444</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>59266.09052107597</v>
+        <v>89470.82266466385</v>
       </c>
       <c r="B34" t="n">
-        <v>5849.07105158552</v>
+        <v>18565.55716571402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94341.1337651069</v>
+        <v>109904.1738856106</v>
       </c>
       <c r="B35" t="n">
-        <v>5838.747728673371</v>
+        <v>17974.06183320785</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74176.92180980329</v>
+        <v>92005.46842157413</v>
       </c>
       <c r="B36" t="n">
-        <v>4607.06012895207</v>
+        <v>15477.82629128583</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92041.79318859364</v>
+        <v>72194.85165196234</v>
       </c>
       <c r="B37" t="n">
-        <v>4485.552324285763</v>
+        <v>2956.345623894517</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>119677.0579263269</v>
+        <v>102618.6539696069</v>
       </c>
       <c r="B38" t="n">
-        <v>4680.421736418395</v>
+        <v>3010.33982383348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>93188.65783380023</v>
+        <v>66572.68015777551</v>
       </c>
       <c r="B39" t="n">
-        <v>4598.042951382065</v>
+        <v>2768.197980426169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>82301.5062304234</v>
+        <v>61609.03336250581</v>
       </c>
       <c r="B40" t="n">
-        <v>4649.899132073475</v>
+        <v>2943.503352561588</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80518.18930379587</v>
+        <v>73023.18119394848</v>
       </c>
       <c r="B41" t="n">
-        <v>4548.981870491518</v>
+        <v>3451.268496214886</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>60479.02735083157</v>
+        <v>66900.8930012872</v>
       </c>
       <c r="B42" t="n">
-        <v>4172.568148751985</v>
+        <v>2073.843739242079</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>49966.56836934395</v>
+        <v>73049.87976858059</v>
       </c>
       <c r="B43" t="n">
-        <v>4108.721204850412</v>
+        <v>3023.819403484454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>69502.57309611113</v>
+        <v>78962.60466473085</v>
       </c>
       <c r="B44" t="n">
-        <v>4255.168665362454</v>
+        <v>2474.523167936884</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44750.48101824317</v>
+        <v>82547.87061196394</v>
       </c>
       <c r="B45" t="n">
-        <v>4344.967042420905</v>
+        <v>2734.346300954753</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44551.95736758858</v>
+        <v>81455.14721510847</v>
       </c>
       <c r="B46" t="n">
-        <v>4067.946621185451</v>
+        <v>2790.512694062582</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>74167.20015867881</v>
+        <v>90649.05628089103</v>
       </c>
       <c r="B47" t="n">
-        <v>4131.643089810157</v>
+        <v>2833.202249164849</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>40149.58267127375</v>
+        <v>107673.2114410422</v>
       </c>
       <c r="B48" t="n">
-        <v>3962.138360363535</v>
+        <v>2486.397098175137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39563.95093795322</v>
+        <v>87666.36187367298</v>
       </c>
       <c r="B49" t="n">
-        <v>3984.812495780437</v>
+        <v>2754.453388930803</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49327.44576263383</v>
+        <v>62777.00093570085</v>
       </c>
       <c r="B50" t="n">
-        <v>3818.679805763387</v>
+        <v>2954.669610295723</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>74038.90574332332</v>
+        <v>45540.18706094573</v>
       </c>
       <c r="B51" t="n">
-        <v>3560.171791751571</v>
+        <v>2321.629884954174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49256.50735473949</v>
+        <v>109084.9452791983</v>
       </c>
       <c r="B52" t="n">
-        <v>3361.178919085262</v>
+        <v>2227.849557979598</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>93906.55933829516</v>
+        <v>128531.7181391219</v>
       </c>
       <c r="B53" t="n">
-        <v>3539.630687794646</v>
+        <v>2500.163956518995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>73997.84862577381</v>
+        <v>113801.7400224386</v>
       </c>
       <c r="B54" t="n">
-        <v>3497.921843158624</v>
+        <v>2183.267094385538</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>88791.06425312701</v>
+        <v>122259.1915720734</v>
       </c>
       <c r="B55" t="n">
-        <v>3611.99721301839</v>
+        <v>2347.315188423026</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>78868.56775964858</v>
+        <v>75843.53825737041</v>
       </c>
       <c r="B56" t="n">
-        <v>3438.212842888779</v>
+        <v>2501.234253188662</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68890.2462886326</v>
+        <v>89130.49559277887</v>
       </c>
       <c r="B57" t="n">
-        <v>3593.26575611563</v>
+        <v>2363.54204921355</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>63901.05798642081</v>
+        <v>89546.5945075803</v>
       </c>
       <c r="B58" t="n">
-        <v>3621.790099118328</v>
+        <v>1878.911114223524</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73811.18026334897</v>
+        <v>87394.7268097925</v>
       </c>
       <c r="B59" t="n">
-        <v>3565.882611800519</v>
+        <v>2193.519920311148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>88701.70320250698</v>
+        <v>65786.53385580656</v>
       </c>
       <c r="B60" t="n">
-        <v>3608.433841558482</v>
+        <v>2139.778692561712</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108345.7979274545</v>
+        <v>101582.4992870227</v>
       </c>
       <c r="B61" t="n">
-        <v>3455.493491701946</v>
+        <v>2103.678738642953</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68619.82085845149</v>
+        <v>105982.1050054117</v>
       </c>
       <c r="B62" t="n">
-        <v>3478.349394636833</v>
+        <v>2035.785809911767</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68664.53034639491</v>
+        <v>97935.1990120816</v>
       </c>
       <c r="B63" t="n">
-        <v>3468.940586850098</v>
+        <v>2049.184209521407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>53727.00801769614</v>
+        <v>92491.12928906833</v>
       </c>
       <c r="B64" t="n">
-        <v>3461.418271170042</v>
+        <v>1963.980057051401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43713.80519619911</v>
+        <v>103698.5948386506</v>
       </c>
       <c r="B65" t="n">
-        <v>3330.100271824683</v>
+        <v>1978.531737657624</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>78401.72517782908</v>
+        <v>78529.0965468881</v>
       </c>
       <c r="B66" t="n">
-        <v>3330.100271824683</v>
+        <v>2062.904602344762</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>78492.97280377676</v>
+        <v>129178.8878940921</v>
       </c>
       <c r="B67" t="n">
-        <v>3317.6847242776</v>
+        <v>2075.099359530874</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>98200.77452114417</v>
+        <v>91221.78434689371</v>
       </c>
       <c r="B68" t="n">
-        <v>3312.925767600133</v>
+        <v>1710.556111285375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73396.84646406781</v>
+        <v>111948.1869123463</v>
       </c>
       <c r="B69" t="n">
-        <v>3280.591992675139</v>
+        <v>1634.214746166648</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>63412.37707466021</v>
+        <v>91625.8775618864</v>
       </c>
       <c r="B70" t="n">
-        <v>3259.663898521653</v>
+        <v>1961.999321795244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>63354.74408122864</v>
+        <v>143665.5514518672</v>
       </c>
       <c r="B71" t="n">
-        <v>3103.533182658307</v>
+        <v>1746.332458023372</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>63285.27222937984</v>
+        <v>102649.4487602647</v>
       </c>
       <c r="B72" t="n">
-        <v>3032.890115324416</v>
+        <v>1746.332458023372</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>73148.49353523691</v>
+        <v>111136.0418513778</v>
       </c>
       <c r="B73" t="n">
-        <v>2888.27965239973</v>
+        <v>2090.537208411348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>63244.31496859909</v>
+        <v>117625.0687583046</v>
       </c>
       <c r="B74" t="n">
-        <v>2865.491275807011</v>
+        <v>1939.049634820615</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>70632.67683945078</v>
+        <v>132190.1687871088</v>
       </c>
       <c r="B75" t="n">
-        <v>3106.649647898055</v>
+        <v>2141.653755433552</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53197.69724994761</v>
+        <v>136301.9294300585</v>
       </c>
       <c r="B76" t="n">
-        <v>3053.712009334133</v>
+        <v>2037.961468335732</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>58091.64821351377</v>
+        <v>124616.479722939</v>
       </c>
       <c r="B77" t="n">
-        <v>2813.087415555979</v>
+        <v>1930.470454027964</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>53586.37177736488</v>
+        <v>122957.8916897169</v>
       </c>
       <c r="B78" t="n">
-        <v>2687.250236708994</v>
+        <v>1756.89210695676</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>68002.57264466243</v>
+        <v>83028.55614795601</v>
       </c>
       <c r="B79" t="n">
-        <v>2690.677898500158</v>
+        <v>2088.400957716127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>67905.41341308743</v>
+        <v>103557.5023289226</v>
       </c>
       <c r="B80" t="n">
-        <v>2748.579068626048</v>
+        <v>2081.03795669856</v>
       </c>
     </row>
   </sheetData>
